--- a/materi/New_Silabus.xlsx
+++ b/materi/New_Silabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\go-phincon_trainee\materi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41D135-CE75-4019-B47A-99C4DA6F01FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628CCE3-33F1-4A0D-817C-12EBE69AAEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +448,20 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +477,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +583,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,9 +605,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -594,6 +612,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +945,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -936,7 +969,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="29" t="s">
         <v>10</v>
       </c>
     </row>
@@ -944,7 +977,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -952,7 +985,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -960,7 +993,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -968,7 +1001,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -980,14 +1013,14 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -995,7 +1028,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1003,7 +1036,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1015,7 +1048,7 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1023,23 +1056,23 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1049,34 +1082,34 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -1086,135 +1119,135 @@
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1224,11 +1257,11 @@
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -1238,11 +1271,11 @@
       <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -1252,11 +1285,11 @@
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -1266,12 +1299,12 @@
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
@@ -1281,273 +1314,273 @@
       <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="D34" s="28"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>1</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <v>1</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="32" t="s">
         <v>58</v>
       </c>
       <c r="E40" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <v>2</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="23">
+      <c r="A51" s="9"/>
+      <c r="B51" s="21">
         <v>2</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="24" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="21">
+      <c r="B55" s="19">
         <v>3</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="26" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="27">
+      <c r="A59" s="10"/>
+      <c r="B59" s="25">
         <v>3</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="19">
+      <c r="A60" s="11"/>
+      <c r="B60" s="18">
         <v>4</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E60" t="s">
@@ -1555,73 +1588,73 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="19">
+      <c r="B64" s="18">
         <v>4</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="22">
+      <c r="A68" s="12"/>
+      <c r="B68" s="20">
         <v>5</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E68" t="s">
@@ -1629,7 +1662,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>3</v>
       </c>
       <c r="B69" s="2">
@@ -1643,42 +1676,42 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="9">
+      <c r="A70" s="12"/>
+      <c r="B70" s="8">
         <v>2</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13">
         <v>3</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17">
+      <c r="A73" s="12"/>
+      <c r="B73" s="16">
         <v>3</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="16" t="s">
         <v>100</v>
       </c>
       <c r="E73" t="s">
@@ -1686,67 +1719,67 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="9">
+      <c r="A74" s="12"/>
+      <c r="B74" s="8">
         <v>4</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="A76" s="16">
         <v>4</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="16">
         <v>1</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="B77" s="17">
+      <c r="A77" s="8"/>
+      <c r="B77" s="16">
         <v>1</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="8"/>
       <c r="E77" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16">
         <v>1</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16">
         <v>2</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="16" t="s">
         <v>108</v>
       </c>
       <c r="E79" t="s">
@@ -1763,213 +1796,213 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="17">
+      <c r="A80" s="8"/>
+      <c r="B80" s="16">
         <v>3</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8">
         <v>4</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8">
         <v>5</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>1</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>1</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="18">
+      <c r="B86" s="17">
         <v>2</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8">
         <v>3</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8">
         <v>4</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8">
         <v>5</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>2</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>1</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>3</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>1</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="9"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>4</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>1</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D92" s="9"/>
+      <c r="D92" s="8"/>
       <c r="E92" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
       <c r="E93" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
       <c r="E94" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="13"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8">
         <v>7</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8">
         <v>8</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="9"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8">
         <v>10</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D105" s="9"/>
+      <c r="D105" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
